--- a/xlsx/数学模型_intext.xlsx
+++ b/xlsx/数学模型_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="215">
   <si>
     <t>数学模型</t>
   </si>
@@ -29,7 +29,7 @@
     <t>模型论</t>
   </si>
   <si>
-    <t>政策_政策_政治學_数学模型</t>
+    <t>政策_政策_政治学_数学模型</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%90%86%E9%80%BB%E8%BE%91</t>
@@ -41,13 +41,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>系統</t>
+    <t>系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E5%AD%A6%E5%BB%BA%E6%A8%A1</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>自然科學</t>
+    <t>自然科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86</t>
@@ -71,25 +71,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>地球科學</t>
+    <t>地球科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B0%A3%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>大氣科學</t>
+    <t>大气科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>工程學</t>
+    <t>工程学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -107,25 +107,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會科學</t>
+    <t>社会科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>心理學</t>
+    <t>心理学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E5%AD%B8</t>
   </si>
   <si>
-    <t>社會學</t>
+    <t>社会学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%A7%91%E5%AD%A6</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E7%90%86%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>物理學家</t>
+    <t>物理学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>工程師</t>
+    <t>工程师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BB%9F%E8%AE%A1%E5%AD%A6%E5%AE%B6</t>
@@ -155,19 +155,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E7%B1%8C%E5%AD%B8</t>
   </si>
   <si>
-    <t>運籌學</t>
+    <t>运筹学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>經濟學家</t>
+    <t>经济学家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E6%85%8B%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>動態系統</t>
+    <t>动态系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A6%82%E7%8E%87%E6%A8%A1%E5%9E%8B</t>
@@ -185,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E5%B1%80%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>賽局理論</t>
+    <t>赛局理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%98%E9%87%8F</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E6%80%A7%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>線性關係</t>
+    <t>线性关系</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Linear_model</t>
@@ -239,7 +239,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E7%B7%9A%E6%80%A7</t>
   </si>
   <si>
-    <t>非線性</t>
+    <t>非线性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B7%E6%B2%8C%E7%90%86%E8%AE%BA</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>理論</t>
+    <t>理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%9B%E9%A1%BF%E8%BF%90%E5%8A%A8%E5%AE%9A%E5%BE%8B</t>
@@ -365,25 +365,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA%E6%B3%A2</t>
   </si>
   <si>
-    <t>物質波</t>
+    <t>物质波</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%83%B3%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>理想氣體</t>
+    <t>理想气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E6%B7%B1%E6%96%B9%E5%BD%A2%E9%98%B1</t>
   </si>
   <si>
-    <t>無限深方形阱</t>
+    <t>无限深方形阱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E5%A3%AB%E5%A8%81%E6%96%B9%E7%A8%8B%E7%B5%84</t>
   </si>
   <si>
-    <t>馬克士威方程組</t>
+    <t>马克士威方程组</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%9B%E5%AE%9A%E8%B0%94%E6%96%B9%E7%A8%8B</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%A3%E7%BE%A9%E7%9B%B8%E5%B0%8D%E8%AB%96</t>
   </si>
   <si>
-    <t>廣義相對論</t>
+    <t>广义相对论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%A0%E4%BD%95%E5%AD%A6</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E7%A8%8B%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>工程技術</t>
+    <t>工程技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%B0%E7%AE%B1%E6%A8%A1%E5%9E%8B</t>
@@ -479,9 +479,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
   </si>
   <si>
-    <t>经济学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%AE%B1%E6%A8%A1%E5%9E%8B</t>
   </si>
   <si>
@@ -491,15 +488,12 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E7%A7%91%E5%AD%B8</t>
   </si>
   <si>
-    <t>生命科學</t>
+    <t>生命科学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6</t>
   </si>
   <si>
-    <t>社会科学</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8A%B6%E6%80%81%E5%9B%BE</t>
   </si>
   <si>
@@ -539,7 +533,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8F%E8%BC%AF%E5%87%BD%E6%95%B8</t>
   </si>
   <si>
-    <t>邏輯函數</t>
+    <t>逻辑函数</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Neighbour-sensing_model</t>
@@ -593,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E7%90%86%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>數理生物學</t>
+    <t>数理生物学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Mathematical_diagram</t>
@@ -635,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8%E5%87%BA%E7%89%88%E7%A4%BE</t>
   </si>
   <si>
-    <t>劍橋大學出版社</t>
+    <t>剑桥大学出版社</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%BE%B7%E7%83%88%C2%B7%E7%A7%91%E7%BD%97%E5%A1%94%E8%80%B6%E5%A4%AB</t>
@@ -653,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -665,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -3240,7 +3234,7 @@
         <v>153</v>
       </c>
       <c r="F77" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="G77" t="n">
         <v>2</v>
@@ -3266,10 +3260,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3295,10 +3289,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3324,10 +3318,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F80" t="s">
-        <v>160</v>
+        <v>30</v>
       </c>
       <c r="G80" t="n">
         <v>2</v>
@@ -3353,10 +3347,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F81" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3382,10 +3376,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F82" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3411,10 +3405,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F83" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3440,10 +3434,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F84" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3469,10 +3463,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -3498,10 +3492,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F86" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3527,10 +3521,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F87" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3556,10 +3550,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3585,10 +3579,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F89" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3614,10 +3608,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F90" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3643,10 +3637,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F91" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3672,10 +3666,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F92" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -3701,10 +3695,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F93" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3730,10 +3724,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F94" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3759,10 +3753,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F95" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3788,10 +3782,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F96" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3817,10 +3811,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F97" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3846,10 +3840,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F98" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3875,10 +3869,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F99" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -3904,10 +3898,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -3933,10 +3927,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -3962,10 +3956,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -3991,10 +3985,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4020,10 +4014,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4049,10 +4043,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>3</v>
@@ -4107,10 +4101,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4136,10 +4130,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4165,10 +4159,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
